--- a/results/nde.xlsx
+++ b/results/nde.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dhanish\FYP\AnchoragePlanner\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394F90B3-AA75-4D3E-BB5E-9C9E44A1CB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF94691D-46AB-43A4-9BE7-1AEDE5D29AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E10"/>
+      <selection activeCell="A11" sqref="A11:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,6 +529,91 @@
         <v>4.1101532229030333E-2</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>315.94280609076719</v>
+      </c>
+      <c r="B11">
+        <v>878.68610847770947</v>
+      </c>
+      <c r="C11">
+        <v>733.75059952038373</v>
+      </c>
+      <c r="D11">
+        <v>0.67083931767086102</v>
+      </c>
+      <c r="E11">
+        <v>4.8187990759162802E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>504.17905848905542</v>
+      </c>
+      <c r="B12">
+        <v>1155.496487289646</v>
+      </c>
+      <c r="C12">
+        <v>767.11502347417843</v>
+      </c>
+      <c r="D12">
+        <v>0.64418763171709492</v>
+      </c>
+      <c r="E12">
+        <v>4.242170406260861E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>561.76678050787223</v>
+      </c>
+      <c r="B13">
+        <v>1092.4326239399829</v>
+      </c>
+      <c r="C13">
+        <v>908.61707317073171</v>
+      </c>
+      <c r="D13">
+        <v>0.69781828454663253</v>
+      </c>
+      <c r="E13">
+        <v>2.9673484072281941E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>302.73533122888102</v>
+      </c>
+      <c r="B14">
+        <v>1073.482796748762</v>
+      </c>
+      <c r="C14">
+        <v>1013.68137254902</v>
+      </c>
+      <c r="D14">
+        <v>0.65658481748456288</v>
+      </c>
+      <c r="E14">
+        <v>3.5255889149605008E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>409.22631613687378</v>
+      </c>
+      <c r="B15">
+        <v>1140.2504258777701</v>
+      </c>
+      <c r="C15">
+        <v>957.10224438902742</v>
+      </c>
+      <c r="D15">
+        <v>0.66418736117194788</v>
+      </c>
+      <c r="E15">
+        <v>4.205301588363846E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -536,10 +621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FAB44D-C29F-4C9F-9C5B-98E50491260C}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E10"/>
+      <selection activeCell="A11" sqref="A11:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,6 +799,91 @@
         <v>1.9818927334821251E-2</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>649.66135491401064</v>
+      </c>
+      <c r="B11">
+        <v>1360.834993632202</v>
+      </c>
+      <c r="C11">
+        <v>674.69211195928756</v>
+      </c>
+      <c r="D11">
+        <v>0.64690375299337466</v>
+      </c>
+      <c r="E11">
+        <v>3.1728466224624871E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>662.22384065735503</v>
+      </c>
+      <c r="B12">
+        <v>1330.7164108157581</v>
+      </c>
+      <c r="C12">
+        <v>684.16</v>
+      </c>
+      <c r="D12">
+        <v>0.68129856394563293</v>
+      </c>
+      <c r="E12">
+        <v>2.1670865512992639E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>543.37021392140991</v>
+      </c>
+      <c r="B13">
+        <v>1158.902749314946</v>
+      </c>
+      <c r="C13">
+        <v>746.81367924528297</v>
+      </c>
+      <c r="D13">
+        <v>0.67436906200742575</v>
+      </c>
+      <c r="E13">
+        <v>2.696292799536364E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>549.34603603175105</v>
+      </c>
+      <c r="B14">
+        <v>1178.688140807762</v>
+      </c>
+      <c r="C14">
+        <v>806.16582914572859</v>
+      </c>
+      <c r="D14">
+        <v>0.67434322500863275</v>
+      </c>
+      <c r="E14">
+        <v>2.69554866288346E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>719.21545500643856</v>
+      </c>
+      <c r="B15">
+        <v>1450.2462194617769</v>
+      </c>
+      <c r="C15">
+        <v>743.10024449877756</v>
+      </c>
+      <c r="D15">
+        <v>0.66765711264540262</v>
+      </c>
+      <c r="E15">
+        <v>2.7668368736985319E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -721,10 +891,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EE8EE0-1DE8-4721-B5A7-7B3DA0B522E1}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E10"/>
+      <selection activeCell="A11" sqref="A11:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,6 +1069,91 @@
         <v>3.6274166707236183E-2</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>497.10501120948987</v>
+      </c>
+      <c r="B11">
+        <v>1257.068602701778</v>
+      </c>
+      <c r="C11">
+        <v>211.62720403022669</v>
+      </c>
+      <c r="D11">
+        <v>0.61125985504355829</v>
+      </c>
+      <c r="E11">
+        <v>3.745019767929051E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>543.91171777187355</v>
+      </c>
+      <c r="B12">
+        <v>1348.181925053655</v>
+      </c>
+      <c r="C12">
+        <v>150.22598870056501</v>
+      </c>
+      <c r="D12">
+        <v>0.61764386710302888</v>
+      </c>
+      <c r="E12">
+        <v>4.0688937158946781E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>510.6616504978789</v>
+      </c>
+      <c r="B13">
+        <v>1312.13464411835</v>
+      </c>
+      <c r="C13">
+        <v>113.3812010443864</v>
+      </c>
+      <c r="D13">
+        <v>0.6130238853912563</v>
+      </c>
+      <c r="E13">
+        <v>4.4324570541697299E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>521.67890531258206</v>
+      </c>
+      <c r="B14">
+        <v>1308.1560525726011</v>
+      </c>
+      <c r="C14">
+        <v>122.9353099730458</v>
+      </c>
+      <c r="D14">
+        <v>0.60664544467011061</v>
+      </c>
+      <c r="E14">
+        <v>5.0255256423504063E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>569.59743760444144</v>
+      </c>
+      <c r="B15">
+        <v>1222.3116710945919</v>
+      </c>
+      <c r="C15">
+        <v>394.32323232323228</v>
+      </c>
+      <c r="D15">
+        <v>0.64892075791077963</v>
+      </c>
+      <c r="E15">
+        <v>3.1822635698394289E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -906,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4FB0E1-FDF5-4ABE-86AF-4CABCE14E9FA}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E10"/>
+      <selection activeCell="A11" sqref="A11:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1084,6 +1339,91 @@
         <v>1.8343640023885222E-2</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>609.96951036803739</v>
+      </c>
+      <c r="B11">
+        <v>1313.1983353473579</v>
+      </c>
+      <c r="C11">
+        <v>1756.985743380855</v>
+      </c>
+      <c r="D11">
+        <v>0.70998457030134665</v>
+      </c>
+      <c r="E11">
+        <v>2.0164127350098999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>686.84564485905264</v>
+      </c>
+      <c r="B12">
+        <v>1323.939418973484</v>
+      </c>
+      <c r="C12">
+        <v>1865.1914460285129</v>
+      </c>
+      <c r="D12">
+        <v>0.7053717804071763</v>
+      </c>
+      <c r="E12">
+        <v>1.800819418982386E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>699.17248698992682</v>
+      </c>
+      <c r="B13">
+        <v>1343.458413746001</v>
+      </c>
+      <c r="C13">
+        <v>1700.674259681093</v>
+      </c>
+      <c r="D13">
+        <v>0.67479065407030336</v>
+      </c>
+      <c r="E13">
+        <v>2.120852687645277E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>498.63351443050328</v>
+      </c>
+      <c r="B14">
+        <v>1219.0938548262341</v>
+      </c>
+      <c r="C14">
+        <v>1838.4407582938391</v>
+      </c>
+      <c r="D14">
+        <v>0.69067310066493215</v>
+      </c>
+      <c r="E14">
+        <v>2.555952673871556E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>803.85979756538359</v>
+      </c>
+      <c r="B15">
+        <v>1435.506266752722</v>
+      </c>
+      <c r="C15">
+        <v>1945.584980237154</v>
+      </c>
+      <c r="D15">
+        <v>0.70621284544108165</v>
+      </c>
+      <c r="E15">
+        <v>1.6214288018909472E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/nde.xlsx
+++ b/results/nde.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dhanish\FYP\AnchoragePlanner\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF94691D-46AB-43A4-9BE7-1AEDE5D29AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C2AEAB-D888-4D27-80E3-D40A0729F991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ahirkapi" sheetId="1" r:id="rId1"/>
@@ -351,15 +351,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>381.83355005281101</v>
       </c>
@@ -375,8 +375,28 @@
       <c r="E1">
         <v>3.9823422364814363E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <f>AVERAGE(A1:A15)</f>
+        <v>416.4736290201626</v>
+      </c>
+      <c r="H1">
+        <f>AVERAGE(B1:B15)</f>
+        <v>1075.2885282744251</v>
+      </c>
+      <c r="I1">
+        <f>AVERAGE(C1:C15)</f>
+        <v>887.63736730427593</v>
+      </c>
+      <c r="J1">
+        <f>AVERAGE(D1:D15)</f>
+        <v>0.65951179851696018</v>
+      </c>
+      <c r="K1">
+        <f>AVERAGE(E1:E15)</f>
+        <v>4.3632388434536387E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>311.93245103149758</v>
       </c>
@@ -393,7 +413,7 @@
         <v>5.2089145691838229E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>400.04011384607691</v>
       </c>
@@ -410,7 +430,7 @@
         <v>4.6669866928601679E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>473.01412826192922</v>
       </c>
@@ -427,7 +447,7 @@
         <v>4.2301790468001352E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>438.93277211455819</v>
       </c>
@@ -444,7 +464,7 @@
         <v>4.9102563916827248E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>335.49443746321822</v>
       </c>
@@ -461,7 +481,7 @@
         <v>4.3237426503334529E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>608.01121762359446</v>
       </c>
@@ -478,7 +498,7 @@
         <v>4.7303988311126699E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>432.82166274353023</v>
       </c>
@@ -495,7 +515,7 @@
         <v>5.2484767027604948E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>354.17016583328109</v>
       </c>
@@ -512,7 +532,7 @@
         <v>4.2779239149569583E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>417.00364387849322</v>
       </c>
@@ -529,7 +549,7 @@
         <v>4.1101532229030333E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>315.94280609076719</v>
       </c>
@@ -546,7 +566,7 @@
         <v>4.8187990759162802E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>504.17905848905542</v>
       </c>
@@ -563,7 +583,7 @@
         <v>4.242170406260861E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>561.76678050787223</v>
       </c>
@@ -580,7 +600,7 @@
         <v>2.9673484072281941E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>302.73533122888102</v>
       </c>
@@ -597,7 +617,7 @@
         <v>3.5255889149605008E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>409.22631613687378</v>
       </c>
@@ -612,6 +632,91 @@
       </c>
       <c r="E15">
         <v>4.205301588363846E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>184.10857128889111</v>
+      </c>
+      <c r="B16">
+        <v>762.91259844322133</v>
+      </c>
+      <c r="C16">
+        <v>1006.476885644769</v>
+      </c>
+      <c r="D16">
+        <v>0.62705955610448394</v>
+      </c>
+      <c r="E16">
+        <v>4.1636366198405488E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>355.22828107985231</v>
+      </c>
+      <c r="B17">
+        <v>1100.5582802681779</v>
+      </c>
+      <c r="C17">
+        <v>897.3</v>
+      </c>
+      <c r="D17">
+        <v>0.64412928808786096</v>
+      </c>
+      <c r="E17">
+        <v>5.3547820272592493E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>379.59702983318959</v>
+      </c>
+      <c r="B18">
+        <v>1016.299712930222</v>
+      </c>
+      <c r="C18">
+        <v>807.01877934272295</v>
+      </c>
+      <c r="D18">
+        <v>0.63886498592642682</v>
+      </c>
+      <c r="E18">
+        <v>4.7272719611587903E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>433.31682396542351</v>
+      </c>
+      <c r="B19">
+        <v>990.25950975628939</v>
+      </c>
+      <c r="C19">
+        <v>874.31051344743275</v>
+      </c>
+      <c r="D19">
+        <v>0.6826910120722931</v>
+      </c>
+      <c r="E19">
+        <v>5.0121728110668388E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>408.87936230413152</v>
+      </c>
+      <c r="B20">
+        <v>1038.0776578083439</v>
+      </c>
+      <c r="C20">
+        <v>920.54846335697403</v>
+      </c>
+      <c r="D20">
+        <v>0.63577224665004861</v>
+      </c>
+      <c r="E20">
+        <v>4.4855190965265627E-2</v>
       </c>
     </row>
   </sheetData>
@@ -621,15 +726,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FAB44D-C29F-4C9F-9C5B-98E50491260C}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>759.78163043691768</v>
       </c>
@@ -645,8 +750,28 @@
       <c r="E1">
         <v>2.2397632186507359E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <f>AVERAGE(A1:A15)</f>
+        <v>656.88554287376724</v>
+      </c>
+      <c r="H1">
+        <f>AVERAGE(B1:B15)</f>
+        <v>1348.2010273529866</v>
+      </c>
+      <c r="I1">
+        <f>AVERAGE(C1:C15)</f>
+        <v>717.25894118972599</v>
+      </c>
+      <c r="J1">
+        <f>AVERAGE(D1:D15)</f>
+        <v>0.67322001741314663</v>
+      </c>
+      <c r="K1">
+        <f>AVERAGE(E1:E15)</f>
+        <v>2.5615911928039199E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>733.07515583414192</v>
       </c>
@@ -663,7 +788,7 @@
         <v>2.379609817395455E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>605.76999224065071</v>
       </c>
@@ -680,7 +805,7 @@
         <v>2.7108918725228439E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>589.34116055010395</v>
       </c>
@@ -697,7 +822,7 @@
         <v>3.1608440820474121E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>586.82250523434732</v>
       </c>
@@ -714,7 +839,7 @@
         <v>2.204784098058158E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>643.2241384645647</v>
       </c>
@@ -731,7 +856,7 @@
         <v>2.506107889181584E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>618.24450816704223</v>
       </c>
@@ -748,7 +873,7 @@
         <v>3.014052076963138E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>808.12659079319485</v>
       </c>
@@ -765,7 +890,7 @@
         <v>2.3029774741632088E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>733.84737528252231</v>
       </c>
@@ -782,7 +907,7 @@
         <v>2.4243331197140301E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>651.23318557205562</v>
       </c>
@@ -799,7 +924,7 @@
         <v>1.9818927334821251E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>649.66135491401064</v>
       </c>
@@ -816,7 +941,7 @@
         <v>3.1728466224624871E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>662.22384065735503</v>
       </c>
@@ -833,7 +958,7 @@
         <v>2.1670865512992639E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>543.37021392140991</v>
       </c>
@@ -850,7 +975,7 @@
         <v>2.696292799536364E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>549.34603603175105</v>
       </c>
@@ -867,7 +992,7 @@
         <v>2.69554866288346E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>719.21545500643856</v>
       </c>
@@ -882,6 +1007,91 @@
       </c>
       <c r="E15">
         <v>2.7668368736985319E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>728.53811239725519</v>
+      </c>
+      <c r="B16">
+        <v>1357.821135316877</v>
+      </c>
+      <c r="C16">
+        <v>722.31840796019901</v>
+      </c>
+      <c r="D16">
+        <v>0.67356855762715973</v>
+      </c>
+      <c r="E16">
+        <v>2.8052710204059649E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>579.84294885458553</v>
+      </c>
+      <c r="B17">
+        <v>1222.59698101559</v>
+      </c>
+      <c r="C17">
+        <v>670.0408163265306</v>
+      </c>
+      <c r="D17">
+        <v>0.65700927280650412</v>
+      </c>
+      <c r="E17">
+        <v>2.779663301349769E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>650.7718505847804</v>
+      </c>
+      <c r="B18">
+        <v>1316.1481262627451</v>
+      </c>
+      <c r="C18">
+        <v>704.12745098039215</v>
+      </c>
+      <c r="D18">
+        <v>0.671985868563449</v>
+      </c>
+      <c r="E18">
+        <v>2.6632483150232748E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>752.34836759739869</v>
+      </c>
+      <c r="B19">
+        <v>1406.9140036328861</v>
+      </c>
+      <c r="C19">
+        <v>684.17840375586854</v>
+      </c>
+      <c r="D19">
+        <v>0.69650069046277208</v>
+      </c>
+      <c r="E19">
+        <v>2.0369551828564252E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>603.3259163066258</v>
+      </c>
+      <c r="B20">
+        <v>1325.288625734489</v>
+      </c>
+      <c r="C20">
+        <v>539.70676691729318</v>
+      </c>
+      <c r="D20">
+        <v>0.66082341551809021</v>
+      </c>
+      <c r="E20">
+        <v>2.8390785715353091E-2</v>
       </c>
     </row>
   </sheetData>
@@ -891,15 +1101,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EE8EE0-1DE8-4721-B5A7-7B3DA0B522E1}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E15"/>
+      <selection activeCell="A16" sqref="A16:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>677.31203915062565</v>
       </c>
@@ -915,8 +1125,28 @@
       <c r="E1">
         <v>3.3218502194056573E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <f>AVERAGE(A1:A15)</f>
+        <v>589.9447634447256</v>
+      </c>
+      <c r="H1">
+        <f>AVERAGE(B1:B15)</f>
+        <v>1358.2414916823334</v>
+      </c>
+      <c r="I1">
+        <f>AVERAGE(C1:C15)</f>
+        <v>203.19951404332383</v>
+      </c>
+      <c r="J1">
+        <f>AVERAGE(D1:D15)</f>
+        <v>0.62376549936776937</v>
+      </c>
+      <c r="K1">
+        <f>AVERAGE(E1:E15)</f>
+        <v>3.9731334933776979E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>664.61416441077188</v>
       </c>
@@ -933,7 +1163,7 @@
         <v>3.707814656056329E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>573.2009012448043</v>
       </c>
@@ -950,7 +1180,7 @@
         <v>4.8570074808953478E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>599.32136106789324</v>
       </c>
@@ -967,7 +1197,7 @@
         <v>3.3607795224865379E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>572.81791761575892</v>
       </c>
@@ -984,7 +1214,7 @@
         <v>4.456181239237203E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>662.76572245480043</v>
       </c>
@@ -1001,7 +1231,7 @@
         <v>3.6593181252438392E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>668.55313013255341</v>
       </c>
@@ -1018,7 +1248,7 @@
         <v>4.0743143578236482E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>552.88928551945503</v>
       </c>
@@ -1035,7 +1265,7 @@
         <v>3.9831538366513791E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>572.32769938157048</v>
       </c>
@@ -1052,7 +1282,7 @@
         <v>4.0950065419586262E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>662.41450829638359</v>
       </c>
@@ -1069,7 +1299,7 @@
         <v>3.6274166707236183E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>497.10501120948987</v>
       </c>
@@ -1086,7 +1316,7 @@
         <v>3.745019767929051E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>543.91171777187355</v>
       </c>
@@ -1103,7 +1333,7 @@
         <v>4.0688937158946781E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>510.6616504978789</v>
       </c>
@@ -1120,7 +1350,7 @@
         <v>4.4324570541697299E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>521.67890531258206</v>
       </c>
@@ -1137,7 +1367,7 @@
         <v>5.0255256423504063E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>569.59743760444144</v>
       </c>
@@ -1152,6 +1382,91 @@
       </c>
       <c r="E15">
         <v>3.1822635698394289E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>585.24882906352946</v>
+      </c>
+      <c r="B16">
+        <v>1405.722078974565</v>
+      </c>
+      <c r="C16">
+        <v>84.79710144927536</v>
+      </c>
+      <c r="D16">
+        <v>0.60867243985503039</v>
+      </c>
+      <c r="E16">
+        <v>4.7299528556348801E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>668.79298630640483</v>
+      </c>
+      <c r="B17">
+        <v>1466.710599709907</v>
+      </c>
+      <c r="C17">
+        <v>197.83510638297869</v>
+      </c>
+      <c r="D17">
+        <v>0.6341253378303191</v>
+      </c>
+      <c r="E17">
+        <v>3.8278764225287643E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>647.03663450213753</v>
+      </c>
+      <c r="B18">
+        <v>1425.8296333305329</v>
+      </c>
+      <c r="C18">
+        <v>116.228947368421</v>
+      </c>
+      <c r="D18">
+        <v>0.6174520916804962</v>
+      </c>
+      <c r="E18">
+        <v>4.1149437992176748E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>569.16154042998664</v>
+      </c>
+      <c r="B19">
+        <v>1344.6400266145799</v>
+      </c>
+      <c r="C19">
+        <v>163.40106951871661</v>
+      </c>
+      <c r="D19">
+        <v>0.61025302466765585</v>
+      </c>
+      <c r="E19">
+        <v>3.9565907425082231E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>561.7807729397781</v>
+      </c>
+      <c r="B20">
+        <v>1308.9790060579719</v>
+      </c>
+      <c r="C20">
+        <v>244.49029126213591</v>
+      </c>
+      <c r="D20">
+        <v>0.65363819913362731</v>
+      </c>
+      <c r="E20">
+        <v>3.335360166329502E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1161,15 +1476,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4FB0E1-FDF5-4ABE-86AF-4CABCE14E9FA}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E15"/>
+      <selection activeCell="A16" sqref="A16:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>727.07609382714736</v>
       </c>
@@ -1185,8 +1500,28 @@
       <c r="E1">
         <v>2.1662193608642289E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <f>AVERAGE(A1:A15)</f>
+        <v>655.5639928537887</v>
+      </c>
+      <c r="H1">
+        <f>AVERAGE(B1:B15)</f>
+        <v>1322.7971883166617</v>
+      </c>
+      <c r="I1">
+        <f>AVERAGE(C1:C15)</f>
+        <v>1869.8491782107949</v>
+      </c>
+      <c r="J1">
+        <f>AVERAGE(D1:D15)</f>
+        <v>0.69010556496806752</v>
+      </c>
+      <c r="K1">
+        <f>AVERAGE(E1:E15)</f>
+        <v>2.057999166341129E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>583.08958722477905</v>
       </c>
@@ -1203,7 +1538,7 @@
         <v>2.1674030089017329E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>582.25310484487511</v>
       </c>
@@ -1220,7 +1555,7 @@
         <v>1.7350799911921649E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>695.17301076763579</v>
       </c>
@@ -1237,7 +1572,7 @@
         <v>2.2179577159107879E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>723.88188155048306</v>
       </c>
@@ -1254,7 +1589,7 @@
         <v>2.2756983181651268E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>670.05869834840951</v>
       </c>
@@ -1271,7 +1606,7 @@
         <v>1.9264661886884801E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>536.72004315883828</v>
       </c>
@@ -1288,7 +1623,7 @@
         <v>2.261477638654176E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>686.92391819017689</v>
       </c>
@@ -1305,7 +1640,7 @@
         <v>2.0050054814082049E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>705.08943085177907</v>
       </c>
@@ -1322,7 +1657,7 @@
         <v>2.164849471543439E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>624.71316982980375</v>
       </c>
@@ -1339,7 +1674,7 @@
         <v>1.8343640023885222E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>609.96951036803739</v>
       </c>
@@ -1356,7 +1691,7 @@
         <v>2.0164127350098999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>686.84564485905264</v>
       </c>
@@ -1373,7 +1708,7 @@
         <v>1.800819418982386E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>699.17248698992682</v>
       </c>
@@ -1390,7 +1725,7 @@
         <v>2.120852687645277E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>498.63351443050328</v>
       </c>
@@ -1407,7 +1742,7 @@
         <v>2.555952673871556E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>803.85979756538359</v>
       </c>
@@ -1422,6 +1757,91 @@
       </c>
       <c r="E15">
         <v>1.6214288018909472E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>700.75591657127291</v>
+      </c>
+      <c r="B16">
+        <v>1358.6524354641249</v>
+      </c>
+      <c r="C16">
+        <v>1789.906926406926</v>
+      </c>
+      <c r="D16">
+        <v>0.70006002944617229</v>
+      </c>
+      <c r="E16">
+        <v>2.0771844317090459E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>585.26654777637896</v>
+      </c>
+      <c r="B17">
+        <v>1216.636585288076</v>
+      </c>
+      <c r="C17">
+        <v>1998.3410041841</v>
+      </c>
+      <c r="D17">
+        <v>0.67533079401473328</v>
+      </c>
+      <c r="E17">
+        <v>1.727922593093506E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>830.99823097598915</v>
+      </c>
+      <c r="B18">
+        <v>1525.2131343532251</v>
+      </c>
+      <c r="C18">
+        <v>1908.022675736961</v>
+      </c>
+      <c r="D18">
+        <v>0.68536238569342744</v>
+      </c>
+      <c r="E18">
+        <v>2.0111878229506719E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>618.90945970313112</v>
+      </c>
+      <c r="B19">
+        <v>1234.3440112016669</v>
+      </c>
+      <c r="C19">
+        <v>1779.0186046511631</v>
+      </c>
+      <c r="D19">
+        <v>0.6932117954026572</v>
+      </c>
+      <c r="E19">
+        <v>1.403628473771908E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>696.00895299654667</v>
+      </c>
+      <c r="B20">
+        <v>1377.9761805856169</v>
+      </c>
+      <c r="C20">
+        <v>1929.814196242171</v>
+      </c>
+      <c r="D20">
+        <v>0.68163088436002417</v>
+      </c>
+      <c r="E20">
+        <v>2.1407554409083811E-2</v>
       </c>
     </row>
   </sheetData>

--- a/results/nde.xlsx
+++ b/results/nde.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dhanish\FYP\AnchoragePlanner\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C2AEAB-D888-4D27-80E3-D40A0729F991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E6E1E8-49E1-4AA5-8C26-B4197E88D700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,372 +351,542 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E20"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>381.83355005281101</v>
+        <v>243.10576666547021</v>
       </c>
       <c r="B1">
-        <v>1071.664788422562</v>
+        <v>0.65282429141975629</v>
       </c>
       <c r="C1">
-        <v>878.95320197044339</v>
+        <v>3.865947896752548E-2</v>
       </c>
       <c r="D1">
-        <v>0.66740254689534673</v>
+        <v>843.35011209332708</v>
       </c>
       <c r="E1">
-        <v>3.9823422364814363E-2</v>
-      </c>
-      <c r="G1">
-        <f>AVERAGE(A1:A15)</f>
-        <v>416.4736290201626</v>
-      </c>
-      <c r="H1">
-        <f>AVERAGE(B1:B15)</f>
-        <v>1075.2885282744251</v>
-      </c>
-      <c r="I1">
-        <f>AVERAGE(C1:C15)</f>
-        <v>887.63736730427593</v>
-      </c>
-      <c r="J1">
-        <f>AVERAGE(D1:D15)</f>
-        <v>0.65951179851696018</v>
-      </c>
-      <c r="K1">
-        <f>AVERAGE(E1:E15)</f>
-        <v>4.3632388434536387E-2</v>
+        <v>904.46210268948653</v>
+      </c>
+      <c r="G1" t="str">
+        <f>CONCATENATE(AVERAGE(A1:A30), " ± ", 1.96*_xlfn.STDEV.S(A1:A30)/SQRT(30))</f>
+        <v>399.113522983504 ± 28.583905108431</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:K1" si="0">CONCATENATE(AVERAGE(B1:B30), " ± ", 1.96*_xlfn.STDEV.S(B1:B30)/SQRT(30))</f>
+        <v>0.652813460935095 ± 0.00752846180904291</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.0446445675717838 ± 0.00193612985510172</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>1073.20043388611 ± 44.3264384147524</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" si="0"/>
+        <v>893.804956039007 ± 29.8737500319109</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>311.93245103149758</v>
+        <v>404.56669617467708</v>
       </c>
       <c r="B2">
-        <v>875.53080273587909</v>
+        <v>0.63262006962487694</v>
       </c>
       <c r="C2">
-        <v>879.90151515151513</v>
+        <v>5.5250642362714639E-2</v>
       </c>
       <c r="D2">
-        <v>0.65646974795288726</v>
+        <v>1211.407738548809</v>
       </c>
       <c r="E2">
-        <v>5.2089145691838229E-2</v>
+        <v>911.1633165829146</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>400.04011384607691</v>
+        <v>357.88641466544499</v>
       </c>
       <c r="B3">
-        <v>1101.637498272768</v>
+        <v>0.64685938588507808</v>
       </c>
       <c r="C3">
-        <v>782.41095890410963</v>
+        <v>5.0500787122904137E-2</v>
       </c>
       <c r="D3">
-        <v>0.65283371145333213</v>
+        <v>1039.4649910241819</v>
       </c>
       <c r="E3">
-        <v>4.6669866928601679E-2</v>
+        <v>792.17312072892935</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>473.01412826192922</v>
+        <v>387.79767763382188</v>
       </c>
       <c r="B4">
-        <v>1116.3507206860929</v>
+        <v>0.65243560346241258</v>
       </c>
       <c r="C4">
-        <v>974.79493670886075</v>
+        <v>5.0440978214962427E-2</v>
       </c>
       <c r="D4">
-        <v>0.66170397577157114</v>
+        <v>971.11665870325373</v>
       </c>
       <c r="E4">
-        <v>4.2301790468001352E-2</v>
+        <v>969.37468354430382</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>438.93277211455819</v>
+        <v>389.37136544384498</v>
       </c>
       <c r="B5">
-        <v>1128.0063146616731</v>
+        <v>0.62307864922329725</v>
       </c>
       <c r="C5">
-        <v>740.92289719626172</v>
+        <v>4.8459827687007018E-2</v>
       </c>
       <c r="D5">
-        <v>0.63087512440049698</v>
+        <v>1057.2412371049661</v>
       </c>
       <c r="E5">
-        <v>4.9102563916827248E-2</v>
+        <v>758.64485981308417</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>335.49443746321822</v>
+        <v>300.48099251758828</v>
       </c>
       <c r="B6">
-        <v>974.19193571565575</v>
+        <v>0.68960150978032586</v>
       </c>
       <c r="C6">
-        <v>977.70379146919436</v>
+        <v>3.0368827644284911E-2</v>
       </c>
       <c r="D6">
-        <v>0.67170739158267934</v>
+        <v>842.19339987459909</v>
       </c>
       <c r="E6">
-        <v>4.3237426503334529E-2</v>
+        <v>951.48218527315919</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>608.01121762359446</v>
+        <v>491.66406552985529</v>
       </c>
       <c r="B7">
-        <v>1271.011369186471</v>
+        <v>0.6645771660124612</v>
       </c>
       <c r="C7">
-        <v>989.30097087378635</v>
+        <v>4.3835961328782369E-2</v>
       </c>
       <c r="D7">
-        <v>0.67481749290699944</v>
+        <v>1173.061115557932</v>
       </c>
       <c r="E7">
-        <v>4.7303988311126699E-2</v>
+        <v>973.96088019559897</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>432.82166274353023</v>
+        <v>544.73413831427251</v>
       </c>
       <c r="B8">
-        <v>1161.2309360778879</v>
+        <v>0.63823604284103297</v>
       </c>
       <c r="C8">
-        <v>880.71392405063295</v>
+        <v>4.3511664572573681E-2</v>
       </c>
       <c r="D8">
-        <v>0.6167304154020149</v>
+        <v>1226.6958877088291</v>
       </c>
       <c r="E8">
-        <v>5.2484767027604948E-2</v>
+        <v>879.01522842639599</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>354.17016583328109</v>
+        <v>386.18210323544997</v>
       </c>
       <c r="B9">
-        <v>1014.613982837725</v>
+        <v>0.67159446097856568</v>
       </c>
       <c r="C9">
-        <v>862.75373134328356</v>
+        <v>4.3024934311360903E-2</v>
       </c>
       <c r="D9">
-        <v>0.66703422889826935</v>
+        <v>905.8530230993872</v>
       </c>
       <c r="E9">
-        <v>4.2779239149569583E-2</v>
+        <v>851.5062344139651</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>417.00364387849322</v>
+        <v>361.16948613234689</v>
       </c>
       <c r="B10">
-        <v>1074.74113318579</v>
+        <v>0.68131824954679931</v>
       </c>
       <c r="C10">
-        <v>966.83826879271066</v>
+        <v>3.8398226892644258E-2</v>
       </c>
       <c r="D10">
-        <v>0.65948492989970842</v>
+        <v>889.35476304012047</v>
       </c>
       <c r="E10">
-        <v>4.1101532229030333E-2</v>
+        <v>943.15560640732269</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>315.94280609076719</v>
+        <v>407.65440845679018</v>
       </c>
       <c r="B11">
-        <v>878.68610847770947</v>
+        <v>0.63330133273195366</v>
       </c>
       <c r="C11">
-        <v>733.75059952038373</v>
+        <v>4.8992285658600733E-2</v>
       </c>
       <c r="D11">
-        <v>0.67083931767086102</v>
+        <v>1036.176800185877</v>
       </c>
       <c r="E11">
-        <v>4.8187990759162802E-2</v>
+        <v>760.45107398568018</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>504.17905848905542</v>
+        <v>329.5797212913975</v>
       </c>
       <c r="B12">
-        <v>1155.496487289646</v>
+        <v>0.64261727309367811</v>
       </c>
       <c r="C12">
-        <v>767.11502347417843</v>
+        <v>5.0277795063985643E-2</v>
       </c>
       <c r="D12">
-        <v>0.64418763171709492</v>
+        <v>1092.0318047377109</v>
       </c>
       <c r="E12">
-        <v>4.242170406260861E-2</v>
+        <v>754.75644028103045</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>561.76678050787223</v>
+        <v>589.50729838725692</v>
       </c>
       <c r="B13">
-        <v>1092.4326239399829</v>
+        <v>0.65287459420662219</v>
       </c>
       <c r="C13">
-        <v>908.61707317073171</v>
+        <v>4.528627728160222E-2</v>
       </c>
       <c r="D13">
-        <v>0.69781828454663253</v>
+        <v>1268.1759703976929</v>
       </c>
       <c r="E13">
-        <v>2.9673484072281941E-2</v>
+        <v>927.41605839416059</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>302.73533122888102</v>
+        <v>424.89876429278161</v>
       </c>
       <c r="B14">
-        <v>1073.482796748762</v>
+        <v>0.6674665905965651</v>
       </c>
       <c r="C14">
-        <v>1013.68137254902</v>
+        <v>4.8444851900560908E-2</v>
       </c>
       <c r="D14">
-        <v>0.65658481748456288</v>
+        <v>1151.518352952457</v>
       </c>
       <c r="E14">
-        <v>3.5255889149605008E-2</v>
+        <v>1000.19315403423</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>409.22631613687378</v>
+        <v>420.41040358196921</v>
       </c>
       <c r="B15">
-        <v>1140.2504258777701</v>
+        <v>0.66607465079426298</v>
       </c>
       <c r="C15">
-        <v>957.10224438902742</v>
+        <v>3.5388088443470432E-2</v>
       </c>
       <c r="D15">
-        <v>0.66418736117194788</v>
+        <v>1258.6691399010101</v>
       </c>
       <c r="E15">
-        <v>4.205301588363846E-2</v>
+        <v>1005.808933002481</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>184.10857128889111</v>
+        <v>440.27595708941197</v>
       </c>
       <c r="B16">
-        <v>762.91259844322133</v>
+        <v>0.68180302962888129</v>
       </c>
       <c r="C16">
-        <v>1006.476885644769</v>
+        <v>3.7522874706779813E-2</v>
       </c>
       <c r="D16">
-        <v>0.62705955610448394</v>
+        <v>1023.723789370096</v>
       </c>
       <c r="E16">
-        <v>4.1636366198405488E-2</v>
+        <v>992.59024390243906</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>355.22828107985231</v>
+        <v>490.13147586142338</v>
       </c>
       <c r="B17">
-        <v>1100.5582802681779</v>
+        <v>0.64323362518205585</v>
       </c>
       <c r="C17">
-        <v>897.3</v>
+        <v>4.9004735844976617E-2</v>
       </c>
       <c r="D17">
-        <v>0.64412928808786096</v>
+        <v>1206.590987760278</v>
       </c>
       <c r="E17">
-        <v>5.3547820272592493E-2</v>
+        <v>880.48018648018649</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>379.59702983318959</v>
+        <v>455.13199436318672</v>
       </c>
       <c r="B18">
-        <v>1016.299712930222</v>
+        <v>0.68313069965979079</v>
       </c>
       <c r="C18">
-        <v>807.01877934272295</v>
+        <v>4.5086111788958917E-2</v>
       </c>
       <c r="D18">
-        <v>0.63886498592642682</v>
+        <v>1114.495284087056</v>
       </c>
       <c r="E18">
-        <v>4.7272719611587903E-2</v>
+        <v>778.10426540284357</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>433.31682396542351</v>
+        <v>341.93172257098638</v>
       </c>
       <c r="B19">
-        <v>990.25950975628939</v>
+        <v>0.62458883676805577</v>
       </c>
       <c r="C19">
-        <v>874.31051344743275</v>
+        <v>4.3914370653456103E-2</v>
       </c>
       <c r="D19">
-        <v>0.6826910120722931</v>
+        <v>1041.2332948976971</v>
       </c>
       <c r="E19">
-        <v>5.0121728110668388E-2</v>
+        <v>924.37226277372258</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>408.87936230413152</v>
+        <v>374.72013708268958</v>
       </c>
       <c r="B20">
-        <v>1038.0776578083439</v>
+        <v>0.67805152275675151</v>
       </c>
       <c r="C20">
-        <v>920.54846335697403</v>
+        <v>4.5208461554344437E-2</v>
       </c>
       <c r="D20">
-        <v>0.63577224665004861</v>
+        <v>1047.3849296042581</v>
       </c>
       <c r="E20">
-        <v>4.4855190965265627E-2</v>
+        <v>865.91469194312799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>401.17212454479852</v>
+      </c>
+      <c r="B21">
+        <v>0.6275671391294142</v>
+      </c>
+      <c r="C21">
+        <v>4.3186684426678897E-2</v>
+      </c>
+      <c r="D21">
+        <v>1150.914668628124</v>
+      </c>
+      <c r="E21">
+        <v>1004.314420803782</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>497.29910618293422</v>
+      </c>
+      <c r="B22">
+        <v>0.67275574712750363</v>
+      </c>
+      <c r="C22">
+        <v>4.775112866921262E-2</v>
+      </c>
+      <c r="D22">
+        <v>1165.5462130198371</v>
+      </c>
+      <c r="E22">
+        <v>922.45537757437069</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>204.59930766775861</v>
+      </c>
+      <c r="B23">
+        <v>0.6459243203165318</v>
+      </c>
+      <c r="C23">
+        <v>3.8772134333279792E-2</v>
+      </c>
+      <c r="D23">
+        <v>840.5647764414008</v>
+      </c>
+      <c r="E23">
+        <v>931.36057692307691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>374.95410159919311</v>
+      </c>
+      <c r="B24">
+        <v>0.64107358660804215</v>
+      </c>
+      <c r="C24">
+        <v>4.2839985960860312E-2</v>
+      </c>
+      <c r="D24">
+        <v>1060.5724031307379</v>
+      </c>
+      <c r="E24">
+        <v>797.61596009975062</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>374.41251479552841</v>
+      </c>
+      <c r="B25">
+        <v>0.6485248706616844</v>
+      </c>
+      <c r="C25">
+        <v>4.5947121134503312E-2</v>
+      </c>
+      <c r="D25">
+        <v>1028.860659265302</v>
+      </c>
+      <c r="E25">
+        <v>847.92592592592598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>407.35227121443319</v>
+      </c>
+      <c r="B26">
+        <v>0.68953854485498667</v>
+      </c>
+      <c r="C26">
+        <v>3.8551304993045668E-2</v>
+      </c>
+      <c r="D26">
+        <v>1048.3497342076189</v>
+      </c>
+      <c r="E26">
+        <v>902.4729064039409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>466.73936592139802</v>
+      </c>
+      <c r="B27">
+        <v>0.61703690972029379</v>
+      </c>
+      <c r="C27">
+        <v>4.8669351943688093E-2</v>
+      </c>
+      <c r="D27">
+        <v>1147.1234357087039</v>
+      </c>
+      <c r="E27">
+        <v>1066.179611650485</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>329.78968779922928</v>
+      </c>
+      <c r="B28">
+        <v>0.63892175524196748</v>
+      </c>
+      <c r="C28">
+        <v>4.3500209930381652E-2</v>
+      </c>
+      <c r="D28">
+        <v>997.87279943790145</v>
+      </c>
+      <c r="E28">
+        <v>808.125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>385.94041473430889</v>
+      </c>
+      <c r="B29">
+        <v>0.63742745567047454</v>
+      </c>
+      <c r="C29">
+        <v>4.8956269728791642E-2</v>
+      </c>
+      <c r="D29">
+        <v>1222.864051003542</v>
+      </c>
+      <c r="E29">
+        <v>854.63097949886105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>389.94620575487528</v>
+      </c>
+      <c r="B30">
+        <v>0.63934591452873102</v>
+      </c>
+      <c r="C30">
+        <v>4.958565403157647E-2</v>
+      </c>
+      <c r="D30">
+        <v>1133.6049950904519</v>
+      </c>
+      <c r="E30">
+        <v>854.04239401496261</v>
       </c>
     </row>
   </sheetData>
@@ -726,10 +896,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FAB44D-C29F-4C9F-9C5B-98E50491260C}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E20"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,36 +909,36 @@
         <v>759.78163043691768</v>
       </c>
       <c r="B1">
+        <v>2.2397632186507359E-2</v>
+      </c>
+      <c r="C1">
+        <v>0.68626938287168038</v>
+      </c>
+      <c r="D1">
         <v>1384.030414782053</v>
       </c>
-      <c r="C1">
+      <c r="E1">
         <v>778.83163265306121</v>
       </c>
-      <c r="D1">
-        <v>0.68626938287168038</v>
-      </c>
-      <c r="E1">
-        <v>2.2397632186507359E-2</v>
-      </c>
-      <c r="G1">
-        <f>AVERAGE(A1:A15)</f>
-        <v>656.88554287376724</v>
-      </c>
-      <c r="H1">
-        <f>AVERAGE(B1:B15)</f>
-        <v>1348.2010273529866</v>
-      </c>
-      <c r="I1">
-        <f>AVERAGE(C1:C15)</f>
-        <v>717.25894118972599</v>
-      </c>
-      <c r="J1">
-        <f>AVERAGE(D1:D15)</f>
-        <v>0.67322001741314663</v>
-      </c>
-      <c r="K1">
-        <f>AVERAGE(E1:E15)</f>
-        <v>2.5615911928039199E-2</v>
+      <c r="G1" t="str">
+        <f>CONCATENATE(AVERAGE(A1:A30), " ± ", 1.96*_xlfn.STDEV.S(A1:A30)/SQRT(30))</f>
+        <v>678.802116423328 ± 29.7297687375175</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:K1" si="0">CONCATENATE(AVERAGE(B1:B30), " ± ", 1.96*_xlfn.STDEV.S(B1:B30)/SQRT(30))</f>
+        <v>0.0250678784532833 ± 0.00126070229131115</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.671594241908539 ± 0.00444210108971947</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>1367.37667507364 ± 38.713986576452</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" si="0"/>
+        <v>734.435782926123 ± 31.513587189027</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -776,16 +946,16 @@
         <v>733.07515583414192</v>
       </c>
       <c r="B2">
+        <v>2.379609817395455E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.67494144716208992</v>
+      </c>
+      <c r="D2">
         <v>1472.9293356794481</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>718.14463840399003</v>
-      </c>
-      <c r="D2">
-        <v>0.67494144716208992</v>
-      </c>
-      <c r="E2">
-        <v>2.379609817395455E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -793,16 +963,16 @@
         <v>605.76999224065071</v>
       </c>
       <c r="B3">
+        <v>2.7108918725228439E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.68315700189745387</v>
+      </c>
+      <c r="D3">
         <v>1284.9212366337599</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>680.76204819277109</v>
-      </c>
-      <c r="D3">
-        <v>0.68315700189745387</v>
-      </c>
-      <c r="E3">
-        <v>2.7108918725228439E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -810,16 +980,16 @@
         <v>589.34116055010395</v>
       </c>
       <c r="B4">
+        <v>3.1608440820474121E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.65259388403766538</v>
+      </c>
+      <c r="D4">
         <v>1354.999327861326</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>689.87864077669906</v>
-      </c>
-      <c r="D4">
-        <v>0.65259388403766538</v>
-      </c>
-      <c r="E4">
-        <v>3.1608440820474121E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -827,16 +997,16 @@
         <v>586.82250523434732</v>
       </c>
       <c r="B5">
+        <v>2.204784098058158E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.67600430290766689</v>
+      </c>
+      <c r="D5">
         <v>1195.5225805535031</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>820.62616822429902</v>
-      </c>
-      <c r="D5">
-        <v>0.67600430290766689</v>
-      </c>
-      <c r="E5">
-        <v>2.204784098058158E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -844,16 +1014,16 @@
         <v>643.2241384645647</v>
       </c>
       <c r="B6">
+        <v>2.506107889181584E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.67623658675733223</v>
+      </c>
+      <c r="D6">
         <v>1347.365789486847</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>684.62373737373741</v>
-      </c>
-      <c r="D6">
-        <v>0.67623658675733223</v>
-      </c>
-      <c r="E6">
-        <v>2.506107889181584E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -861,16 +1031,16 @@
         <v>618.24450816704223</v>
       </c>
       <c r="B7">
+        <v>3.014052076963138E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.65257393462454483</v>
+      </c>
+      <c r="D7">
         <v>1404.9320891602281</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>729.78238341968915</v>
-      </c>
-      <c r="D7">
-        <v>0.65257393462454483</v>
-      </c>
-      <c r="E7">
-        <v>3.014052076963138E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -878,16 +1048,16 @@
         <v>808.12659079319485</v>
       </c>
       <c r="B8">
+        <v>2.3029774741632088E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.69260349132617804</v>
+      </c>
+      <c r="D8">
         <v>1492.7280283339351</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>692.72</v>
-      </c>
-      <c r="D8">
-        <v>0.69260349132617804</v>
-      </c>
-      <c r="E8">
-        <v>2.3029774741632088E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -895,16 +1065,16 @@
         <v>733.84737528252231</v>
       </c>
       <c r="B9">
+        <v>2.4243331197140301E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.68341669051541842</v>
+      </c>
+      <c r="D9">
         <v>1446.0996400923859</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>645.46464646464642</v>
-      </c>
-      <c r="D9">
-        <v>0.68341669051541842</v>
-      </c>
-      <c r="E9">
-        <v>2.4243331197140301E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -912,16 +1082,16 @@
         <v>651.23318557205562</v>
       </c>
       <c r="B10">
+        <v>1.9818927334821251E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.67593182249670247</v>
+      </c>
+      <c r="D10">
         <v>1360.098453678869</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>663.11835748792271</v>
-      </c>
-      <c r="D10">
-        <v>0.67593182249670247</v>
-      </c>
-      <c r="E10">
-        <v>1.9818927334821251E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -929,16 +1099,16 @@
         <v>649.66135491401064</v>
       </c>
       <c r="B11">
+        <v>3.1728466224624871E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.64690375299337466</v>
+      </c>
+      <c r="D11">
         <v>1360.834993632202</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>674.69211195928756</v>
-      </c>
-      <c r="D11">
-        <v>0.64690375299337466</v>
-      </c>
-      <c r="E11">
-        <v>3.1728466224624871E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -946,16 +1116,16 @@
         <v>662.22384065735503</v>
       </c>
       <c r="B12">
+        <v>2.1670865512992639E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.68129856394563293</v>
+      </c>
+      <c r="D12">
         <v>1330.7164108157581</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>684.16</v>
-      </c>
-      <c r="D12">
-        <v>0.68129856394563293</v>
-      </c>
-      <c r="E12">
-        <v>2.1670865512992639E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -963,16 +1133,16 @@
         <v>543.37021392140991</v>
       </c>
       <c r="B13">
+        <v>2.696292799536364E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.67436906200742575</v>
+      </c>
+      <c r="D13">
         <v>1158.902749314946</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>746.81367924528297</v>
-      </c>
-      <c r="D13">
-        <v>0.67436906200742575</v>
-      </c>
-      <c r="E13">
-        <v>2.696292799536364E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -980,16 +1150,16 @@
         <v>549.34603603175105</v>
       </c>
       <c r="B14">
+        <v>2.69554866288346E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.67434322500863275</v>
+      </c>
+      <c r="D14">
         <v>1178.688140807762</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>806.16582914572859</v>
-      </c>
-      <c r="D14">
-        <v>0.67434322500863275</v>
-      </c>
-      <c r="E14">
-        <v>2.69554866288346E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -997,16 +1167,16 @@
         <v>719.21545500643856</v>
       </c>
       <c r="B15">
+        <v>2.7668368736985319E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.66765711264540262</v>
+      </c>
+      <c r="D15">
         <v>1450.2462194617769</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>743.10024449877756</v>
-      </c>
-      <c r="D15">
-        <v>0.66765711264540262</v>
-      </c>
-      <c r="E15">
-        <v>2.7668368736985319E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1014,16 +1184,16 @@
         <v>728.53811239725519</v>
       </c>
       <c r="B16">
+        <v>2.8052710204059649E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.67356855762715973</v>
+      </c>
+      <c r="D16">
         <v>1357.821135316877</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>722.31840796019901</v>
-      </c>
-      <c r="D16">
-        <v>0.67356855762715973</v>
-      </c>
-      <c r="E16">
-        <v>2.8052710204059649E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1031,16 +1201,16 @@
         <v>579.84294885458553</v>
       </c>
       <c r="B17">
+        <v>2.779663301349769E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.65700927280650412</v>
+      </c>
+      <c r="D17">
         <v>1222.59698101559</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>670.0408163265306</v>
-      </c>
-      <c r="D17">
-        <v>0.65700927280650412</v>
-      </c>
-      <c r="E17">
-        <v>2.779663301349769E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1048,16 +1218,16 @@
         <v>650.7718505847804</v>
       </c>
       <c r="B18">
+        <v>2.6632483150232748E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.671985868563449</v>
+      </c>
+      <c r="D18">
         <v>1316.1481262627451</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>704.12745098039215</v>
-      </c>
-      <c r="D18">
-        <v>0.671985868563449</v>
-      </c>
-      <c r="E18">
-        <v>2.6632483150232748E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1065,16 +1235,16 @@
         <v>752.34836759739869</v>
       </c>
       <c r="B19">
+        <v>2.0369551828564252E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.69650069046277208</v>
+      </c>
+      <c r="D19">
         <v>1406.9140036328861</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>684.17840375586854</v>
-      </c>
-      <c r="D19">
-        <v>0.69650069046277208</v>
-      </c>
-      <c r="E19">
-        <v>2.0369551828564252E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1082,16 +1252,186 @@
         <v>603.3259163066258</v>
       </c>
       <c r="B20">
+        <v>2.8390785715353091E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.66082341551809021</v>
+      </c>
+      <c r="D20">
         <v>1325.288625734489</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>539.70676691729318</v>
       </c>
-      <c r="D20">
-        <v>0.66082341551809021</v>
-      </c>
-      <c r="E20">
-        <v>2.8390785715353091E-2</v>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>760.0427490130503</v>
+      </c>
+      <c r="B21">
+        <v>2.5213633682943909E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.6710545586163158</v>
+      </c>
+      <c r="D21">
+        <v>1414.857171981394</v>
+      </c>
+      <c r="E21">
+        <v>762.4768041237113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>664.77078506448765</v>
+      </c>
+      <c r="B22">
+        <v>2.243461008452657E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.67384651435481602</v>
+      </c>
+      <c r="D22">
+        <v>1345.940762495828</v>
+      </c>
+      <c r="E22">
+        <v>836.42475728155341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>671.05166305847661</v>
+      </c>
+      <c r="B23">
+        <v>2.9419116813518161E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.66100422914949974</v>
+      </c>
+      <c r="D23">
+        <v>1311.219735409139</v>
+      </c>
+      <c r="E23">
+        <v>670.62982005141384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>794.13337937257108</v>
+      </c>
+      <c r="B24">
+        <v>1.9547033364690752E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.66479230668272327</v>
+      </c>
+      <c r="D24">
+        <v>1534.142926338558</v>
+      </c>
+      <c r="E24">
+        <v>802.3542713567839</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>639.44320438506679</v>
+      </c>
+      <c r="B25">
+        <v>2.712089530723252E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.675020559725789</v>
+      </c>
+      <c r="D25">
+        <v>1286.8761932579121</v>
+      </c>
+      <c r="E25">
+        <v>985.28904428904434</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>645.392287342283</v>
+      </c>
+      <c r="B26">
+        <v>2.0327360058587179E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.68874216362223306</v>
+      </c>
+      <c r="D26">
+        <v>1321.050014281391</v>
+      </c>
+      <c r="E26">
+        <v>647.8650793650794</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>873.29487875008795</v>
+      </c>
+      <c r="B27">
+        <v>2.5823899794320381E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.65474172476167969</v>
+      </c>
+      <c r="D27">
+        <v>1673.1427903577339</v>
+      </c>
+      <c r="E27">
+        <v>862.57524271844659</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>688.86453031492408</v>
+      </c>
+      <c r="B28">
+        <v>2.033405933890407E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.67863098991581317</v>
+      </c>
+      <c r="D28">
+        <v>1381.6890803551539</v>
+      </c>
+      <c r="E28">
+        <v>864.14179104477614</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>641.40907240073818</v>
+      </c>
+      <c r="B29">
+        <v>2.4170652115637709E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.65734305226601408</v>
+      </c>
+      <c r="D29">
+        <v>1407.5177602217079</v>
+      </c>
+      <c r="E29">
+        <v>835.36298076923072</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>817.55060415101752</v>
+      </c>
+      <c r="B30">
+        <v>2.2164250205841101E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.66446309198610898</v>
+      </c>
+      <c r="D30">
+        <v>1493.0795352529781</v>
+      </c>
+      <c r="E30">
+        <v>686.69773299748113</v>
       </c>
     </row>
   </sheetData>
@@ -1101,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EE8EE0-1DE8-4721-B5A7-7B3DA0B522E1}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E20"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,36 +1454,36 @@
         <v>677.31203915062565</v>
       </c>
       <c r="B1">
+        <v>3.3218502194056573E-2</v>
+      </c>
+      <c r="C1">
+        <v>0.62621518069984106</v>
+      </c>
+      <c r="D1">
         <v>1470.0719890721491</v>
       </c>
-      <c r="C1">
+      <c r="E1">
         <v>200.02912621359221</v>
       </c>
-      <c r="D1">
-        <v>0.62621518069984106</v>
-      </c>
-      <c r="E1">
-        <v>3.3218502194056573E-2</v>
-      </c>
-      <c r="G1">
-        <f>AVERAGE(A1:A15)</f>
-        <v>589.9447634447256</v>
-      </c>
-      <c r="H1">
-        <f>AVERAGE(B1:B15)</f>
-        <v>1358.2414916823334</v>
-      </c>
-      <c r="I1">
-        <f>AVERAGE(C1:C15)</f>
-        <v>203.19951404332383</v>
-      </c>
-      <c r="J1">
-        <f>AVERAGE(D1:D15)</f>
-        <v>0.62376549936776937</v>
-      </c>
-      <c r="K1">
-        <f>AVERAGE(E1:E15)</f>
-        <v>3.9731334933776979E-2</v>
+      <c r="G1" t="str">
+        <f>CONCATENATE(AVERAGE(A1:A30), " ± ", 1.96*_xlfn.STDEV.S(A1:A30)/SQRT(30))</f>
+        <v>591.574167868141 ± 20.532802447173</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:K1" si="0">CONCATENATE(AVERAGE(B1:B30), " ± ", 1.96*_xlfn.STDEV.S(B1:B30)/SQRT(30))</f>
+        <v>0.0390588311185142 ± 0.00168854386784546</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.624713318630231 ± 0.00525247020463787</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>1362.97792599378 ± 25.7946851360811</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" si="0"/>
+        <v>191.83519877545 ± 21.9590171368521</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1151,16 +1491,16 @@
         <v>664.61416441077188</v>
       </c>
       <c r="B2">
+        <v>3.707814656056329E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.62855607212754916</v>
+      </c>
+      <c r="D2">
         <v>1458.6997440907769</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>279.07</v>
-      </c>
-      <c r="D2">
-        <v>0.62855607212754916</v>
-      </c>
-      <c r="E2">
-        <v>3.707814656056329E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1168,16 +1508,16 @@
         <v>573.2009012448043</v>
       </c>
       <c r="B3">
+        <v>4.8570074808953478E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.6118249491130171</v>
+      </c>
+      <c r="D3">
         <v>1380.3880942284161</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>152.6149253731343</v>
-      </c>
-      <c r="D3">
-        <v>0.6118249491130171</v>
-      </c>
-      <c r="E3">
-        <v>4.8570074808953478E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1185,16 +1525,16 @@
         <v>599.32136106789324</v>
       </c>
       <c r="B4">
+        <v>3.3607795224865379E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.65951184624944692</v>
+      </c>
+      <c r="D4">
         <v>1307.4676140058509</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>284.10714285714278</v>
-      </c>
-      <c r="D4">
-        <v>0.65951184624944692</v>
-      </c>
-      <c r="E4">
-        <v>3.3607795224865379E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1202,16 +1542,16 @@
         <v>572.81791761575892</v>
       </c>
       <c r="B5">
+        <v>4.456181239237203E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.62028912025201155</v>
+      </c>
+      <c r="D5">
         <v>1295.5746541194731</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>138.9647696476965</v>
-      </c>
-      <c r="D5">
-        <v>0.62028912025201155</v>
-      </c>
-      <c r="E5">
-        <v>4.456181239237203E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1219,16 +1559,16 @@
         <v>662.76572245480043</v>
       </c>
       <c r="B6">
+        <v>3.6593181252438392E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.6283174624590544</v>
+      </c>
+      <c r="D6">
         <v>1458.460436389011</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>223.53018372703411</v>
-      </c>
-      <c r="D6">
-        <v>0.6283174624590544</v>
-      </c>
-      <c r="E6">
-        <v>3.6593181252438392E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1236,16 +1576,16 @@
         <v>668.55313013255341</v>
       </c>
       <c r="B7">
+        <v>4.0743143578236482E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.6255147692794959</v>
+      </c>
+      <c r="D7">
         <v>1437.02618285472</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>245.47945205479451</v>
-      </c>
-      <c r="D7">
-        <v>0.6255147692794959</v>
-      </c>
-      <c r="E7">
-        <v>4.0743143578236482E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1253,16 +1593,16 @@
         <v>552.88928551945503</v>
       </c>
       <c r="B8">
+        <v>3.9831538366513791E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.61913480383323083</v>
+      </c>
+      <c r="D8">
         <v>1318.2345250956951</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>158.5325</v>
-      </c>
-      <c r="D8">
-        <v>0.61913480383323083</v>
-      </c>
-      <c r="E8">
-        <v>3.9831538366513791E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1270,16 +1610,16 @@
         <v>572.32769938157048</v>
       </c>
       <c r="B9">
+        <v>4.0950065419586262E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.60683749476722493</v>
+      </c>
+      <c r="D9">
         <v>1385.924590923438</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>164.93580246913581</v>
-      </c>
-      <c r="D9">
-        <v>0.60683749476722493</v>
-      </c>
-      <c r="E9">
-        <v>4.0950065419586262E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1287,16 +1627,16 @@
         <v>662.41450829638359</v>
       </c>
       <c r="B10">
+        <v>3.6274166707236183E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.6327869816169357</v>
+      </c>
+      <c r="D10">
         <v>1413.9216489145001</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>208.23587223587219</v>
-      </c>
-      <c r="D10">
-        <v>0.6327869816169357</v>
-      </c>
-      <c r="E10">
-        <v>3.6274166707236183E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1304,16 +1644,16 @@
         <v>497.10501120948987</v>
       </c>
       <c r="B11">
+        <v>3.745019767929051E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.61125985504355829</v>
+      </c>
+      <c r="D11">
         <v>1257.068602701778</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>211.62720403022669</v>
-      </c>
-      <c r="D11">
-        <v>0.61125985504355829</v>
-      </c>
-      <c r="E11">
-        <v>3.745019767929051E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1321,16 +1661,16 @@
         <v>543.91171777187355</v>
       </c>
       <c r="B12">
+        <v>4.0688937158946781E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.61764386710302888</v>
+      </c>
+      <c r="D12">
         <v>1348.181925053655</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>150.22598870056501</v>
-      </c>
-      <c r="D12">
-        <v>0.61764386710302888</v>
-      </c>
-      <c r="E12">
-        <v>4.0688937158946781E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1338,16 +1678,16 @@
         <v>510.6616504978789</v>
       </c>
       <c r="B13">
+        <v>4.4324570541697299E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.6130238853912563</v>
+      </c>
+      <c r="D13">
         <v>1312.13464411835</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>113.3812010443864</v>
-      </c>
-      <c r="D13">
-        <v>0.6130238853912563</v>
-      </c>
-      <c r="E13">
-        <v>4.4324570541697299E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1355,16 +1695,16 @@
         <v>521.67890531258206</v>
       </c>
       <c r="B14">
+        <v>5.0255256423504063E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.60664544467011061</v>
+      </c>
+      <c r="D14">
         <v>1308.1560525726011</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>122.9353099730458</v>
-      </c>
-      <c r="D14">
-        <v>0.60664544467011061</v>
-      </c>
-      <c r="E14">
-        <v>5.0255256423504063E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1372,16 +1712,16 @@
         <v>569.59743760444144</v>
       </c>
       <c r="B15">
+        <v>3.1822635698394289E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.64892075791077963</v>
+      </c>
+      <c r="D15">
         <v>1222.3116710945919</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>394.32323232323228</v>
-      </c>
-      <c r="D15">
-        <v>0.64892075791077963</v>
-      </c>
-      <c r="E15">
-        <v>3.1822635698394289E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1389,16 +1729,16 @@
         <v>585.24882906352946</v>
       </c>
       <c r="B16">
+        <v>4.7299528556348801E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.60867243985503039</v>
+      </c>
+      <c r="D16">
         <v>1405.722078974565</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>84.79710144927536</v>
-      </c>
-      <c r="D16">
-        <v>0.60867243985503039</v>
-      </c>
-      <c r="E16">
-        <v>4.7299528556348801E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1406,16 +1746,16 @@
         <v>668.79298630640483</v>
       </c>
       <c r="B17">
+        <v>3.8278764225287643E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.6341253378303191</v>
+      </c>
+      <c r="D17">
         <v>1466.710599709907</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>197.83510638297869</v>
-      </c>
-      <c r="D17">
-        <v>0.6341253378303191</v>
-      </c>
-      <c r="E17">
-        <v>3.8278764225287643E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1423,16 +1763,16 @@
         <v>647.03663450213753</v>
       </c>
       <c r="B18">
+        <v>4.1149437992176748E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.6174520916804962</v>
+      </c>
+      <c r="D18">
         <v>1425.8296333305329</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>116.228947368421</v>
-      </c>
-      <c r="D18">
-        <v>0.6174520916804962</v>
-      </c>
-      <c r="E18">
-        <v>4.1149437992176748E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1440,16 +1780,16 @@
         <v>569.16154042998664</v>
       </c>
       <c r="B19">
+        <v>3.9565907425082231E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.61025302466765585</v>
+      </c>
+      <c r="D19">
         <v>1344.6400266145799</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>163.40106951871661</v>
-      </c>
-      <c r="D19">
-        <v>0.61025302466765585</v>
-      </c>
-      <c r="E19">
-        <v>3.9565907425082231E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1457,16 +1797,186 @@
         <v>561.7807729397781</v>
       </c>
       <c r="B20">
+        <v>3.335360166329502E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.65363819913362731</v>
+      </c>
+      <c r="D20">
         <v>1308.9790060579719</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>244.49029126213591</v>
       </c>
-      <c r="D20">
-        <v>0.65363819913362731</v>
-      </c>
-      <c r="E20">
-        <v>3.335360166329502E-2</v>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>537.62246859232573</v>
+      </c>
+      <c r="B21">
+        <v>3.3455932360640733E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.62238072227167063</v>
+      </c>
+      <c r="D21">
+        <v>1304.4748422472551</v>
+      </c>
+      <c r="E21">
+        <v>205.5605263157895</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>577.53376658333832</v>
+      </c>
+      <c r="B22">
+        <v>3.7814717989965538E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.62249890973286304</v>
+      </c>
+      <c r="D22">
+        <v>1336.368568464763</v>
+      </c>
+      <c r="E22">
+        <v>221.7771739130435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>579.37212310274231</v>
+      </c>
+      <c r="B23">
+        <v>4.400906462721399E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.60918750986828629</v>
+      </c>
+      <c r="D23">
+        <v>1357.2247002745969</v>
+      </c>
+      <c r="E23">
+        <v>161.65185185185189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>649.72042117624369</v>
+      </c>
+      <c r="B24">
+        <v>3.5944201161745563E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.64028387168012391</v>
+      </c>
+      <c r="D24">
+        <v>1443.519307543851</v>
+      </c>
+      <c r="E24">
+        <v>205.57575757575759</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>515.41597641046701</v>
+      </c>
+      <c r="B25">
+        <v>3.6552978690930223E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.63524982079233738</v>
+      </c>
+      <c r="D25">
+        <v>1253.423277169712</v>
+      </c>
+      <c r="E25">
+        <v>219.9654320987654</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>599.70897253219903</v>
+      </c>
+      <c r="B26">
+        <v>3.4611844391973588E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.64369339671811532</v>
+      </c>
+      <c r="D26">
+        <v>1363.7899045477971</v>
+      </c>
+      <c r="E26">
+        <v>203.14136125654451</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>554.96374592694713</v>
+      </c>
+      <c r="B27">
+        <v>4.2555824562689561E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.6111941711744806</v>
+      </c>
+      <c r="D27">
+        <v>1319.6560877177039</v>
+      </c>
+      <c r="E27">
+        <v>141.61081081081079</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>709.67587195510725</v>
+      </c>
+      <c r="B28">
+        <v>3.6092879887422373E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.64396984852073891</v>
+      </c>
+      <c r="D28">
+        <v>1503.9324959436849</v>
+      </c>
+      <c r="E28">
+        <v>193.66489361702131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>602.19682797801443</v>
+      </c>
+      <c r="B29">
+        <v>3.8337566961674591E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.61892538994890867</v>
+      </c>
+      <c r="D29">
+        <v>1355.0129938185401</v>
+      </c>
+      <c r="E29">
+        <v>145.50374064837911</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>539.82264687411305</v>
+      </c>
+      <c r="B30">
+        <v>3.6772659052324831E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.61339233451571906</v>
+      </c>
+      <c r="D30">
+        <v>1326.431882162919</v>
+      </c>
+      <c r="E30">
+        <v>201.85918854415269</v>
       </c>
     </row>
   </sheetData>
@@ -1476,10 +1986,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4FB0E1-FDF5-4ABE-86AF-4CABCE14E9FA}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E20"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1489,36 +1999,36 @@
         <v>727.07609382714736</v>
       </c>
       <c r="B1">
+        <v>2.1662193608642289E-2</v>
+      </c>
+      <c r="C1">
+        <v>0.69540243005525948</v>
+      </c>
+      <c r="D1">
         <v>1407.037767009637</v>
       </c>
-      <c r="C1">
+      <c r="E1">
         <v>1793.6427061310781</v>
       </c>
-      <c r="D1">
-        <v>0.69540243005525948</v>
-      </c>
-      <c r="E1">
-        <v>2.1662193608642289E-2</v>
-      </c>
-      <c r="G1">
-        <f>AVERAGE(A1:A15)</f>
-        <v>655.5639928537887</v>
-      </c>
-      <c r="H1">
-        <f>AVERAGE(B1:B15)</f>
-        <v>1322.7971883166617</v>
-      </c>
-      <c r="I1">
-        <f>AVERAGE(C1:C15)</f>
-        <v>1869.8491782107949</v>
-      </c>
-      <c r="J1">
-        <f>AVERAGE(D1:D15)</f>
-        <v>0.69010556496806752</v>
-      </c>
-      <c r="K1">
-        <f>AVERAGE(E1:E15)</f>
-        <v>2.057999166341129E-2</v>
+      <c r="G1" t="str">
+        <f>CONCATENATE(AVERAGE(A1:A30), " ± ", 1.96*_xlfn.STDEV.S(A1:A30)/SQRT(30))</f>
+        <v>681.001293798238 ± 35.901094416291</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:K1" si="0">CONCATENATE(AVERAGE(B1:B30), " ± ", 1.96*_xlfn.STDEV.S(B1:B30)/SQRT(30))</f>
+        <v>0.0198312464440646 ± 0.000893922150795171</v>
+      </c>
+      <c r="I1" t="str">
+        <f t="shared" si="0"/>
+        <v>0.6903244202511 ± 0.00523625446576431</v>
+      </c>
+      <c r="J1" t="str">
+        <f t="shared" si="0"/>
+        <v>1350.17016229353 ± 48.7079560833574</v>
+      </c>
+      <c r="K1" t="str">
+        <f t="shared" si="0"/>
+        <v>1888.29953173087 ± 41.7134649878036</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1526,16 +2036,16 @@
         <v>583.08958722477905</v>
       </c>
       <c r="B2">
+        <v>2.1674030089017329E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.70512355857878917</v>
+      </c>
+      <c r="D2">
         <v>1275.0465639216879</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>1960.0133630289531</v>
-      </c>
-      <c r="D2">
-        <v>0.70512355857878917</v>
-      </c>
-      <c r="E2">
-        <v>2.1674030089017329E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1543,16 +2053,16 @@
         <v>582.25310484487511</v>
       </c>
       <c r="B3">
+        <v>1.7350799911921649E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.69581590227960932</v>
+      </c>
+      <c r="D3">
         <v>1107.9845417282941</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>1931.0597938144331</v>
-      </c>
-      <c r="D3">
-        <v>0.69581590227960932</v>
-      </c>
-      <c r="E3">
-        <v>1.7350799911921649E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1560,16 +2070,16 @@
         <v>695.17301076763579</v>
       </c>
       <c r="B4">
+        <v>2.2179577159107879E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.690238191181615</v>
+      </c>
+      <c r="D4">
         <v>1334.5097174787411</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>1964.2258064516129</v>
-      </c>
-      <c r="D4">
-        <v>0.690238191181615</v>
-      </c>
-      <c r="E4">
-        <v>2.2179577159107879E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1577,16 +2087,16 @@
         <v>723.88188155048306</v>
       </c>
       <c r="B5">
+        <v>2.2756983181651268E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.67228843956594031</v>
+      </c>
+      <c r="D5">
         <v>1416.2985603250791</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>1766.9278131634819</v>
-      </c>
-      <c r="D5">
-        <v>0.67228843956594031</v>
-      </c>
-      <c r="E5">
-        <v>2.2756983181651268E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1594,16 +2104,16 @@
         <v>670.05869834840951</v>
       </c>
       <c r="B6">
+        <v>1.9264661886884801E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.68602123630440548</v>
+      </c>
+      <c r="D6">
         <v>1257.722375163853</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>2018.5576131687239</v>
-      </c>
-      <c r="D6">
-        <v>0.68602123630440548</v>
-      </c>
-      <c r="E6">
-        <v>1.9264661886884801E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1611,16 +2121,16 @@
         <v>536.72004315883828</v>
       </c>
       <c r="B7">
+        <v>2.261477638654176E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.65702731443637752</v>
+      </c>
+      <c r="D7">
         <v>1221.0457565154049</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>1647.4532710280371</v>
-      </c>
-      <c r="D7">
-        <v>0.65702731443637752</v>
-      </c>
-      <c r="E7">
-        <v>2.261477638654176E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1628,16 +2138,16 @@
         <v>686.92391819017689</v>
       </c>
       <c r="B8">
+        <v>2.0050054814082049E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.67379424351919925</v>
+      </c>
+      <c r="D8">
         <v>1466.589161475114</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>1861.4333333333329</v>
-      </c>
-      <c r="D8">
-        <v>0.67379424351919925</v>
-      </c>
-      <c r="E8">
-        <v>2.0050054814082049E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1645,16 +2155,16 @@
         <v>705.08943085177907</v>
       </c>
       <c r="B9">
+        <v>2.164849471543439E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.69059903309970583</v>
+      </c>
+      <c r="D9">
         <v>1477.872024662996</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>2111.810383747179</v>
-      </c>
-      <c r="D9">
-        <v>0.69059903309970583</v>
-      </c>
-      <c r="E9">
-        <v>2.164849471543439E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1662,16 +2172,16 @@
         <v>624.71316982980375</v>
       </c>
       <c r="B10">
+        <v>1.8343640023885222E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.69824017461526933</v>
+      </c>
+      <c r="D10">
         <v>1242.6550668233151</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>1885.7364016736401</v>
-      </c>
-      <c r="D10">
-        <v>0.69824017461526933</v>
-      </c>
-      <c r="E10">
-        <v>1.8343640023885222E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1679,16 +2189,16 @@
         <v>609.96951036803739</v>
       </c>
       <c r="B11">
+        <v>2.0164127350098999E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.70998457030134665</v>
+      </c>
+      <c r="D11">
         <v>1313.1983353473579</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>1756.985743380855</v>
-      </c>
-      <c r="D11">
-        <v>0.70998457030134665</v>
-      </c>
-      <c r="E11">
-        <v>2.0164127350098999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1696,16 +2206,16 @@
         <v>686.84564485905264</v>
       </c>
       <c r="B12">
+        <v>1.800819418982386E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.7053717804071763</v>
+      </c>
+      <c r="D12">
         <v>1323.939418973484</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>1865.1914460285129</v>
-      </c>
-      <c r="D12">
-        <v>0.7053717804071763</v>
-      </c>
-      <c r="E12">
-        <v>1.800819418982386E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1713,16 +2223,16 @@
         <v>699.17248698992682</v>
       </c>
       <c r="B13">
+        <v>2.120852687645277E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.67479065407030336</v>
+      </c>
+      <c r="D13">
         <v>1343.458413746001</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>1700.674259681093</v>
-      </c>
-      <c r="D13">
-        <v>0.67479065407030336</v>
-      </c>
-      <c r="E13">
-        <v>2.120852687645277E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1730,16 +2240,16 @@
         <v>498.63351443050328</v>
       </c>
       <c r="B14">
+        <v>2.555952673871556E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.69067310066493215</v>
+      </c>
+      <c r="D14">
         <v>1219.0938548262341</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>1838.4407582938391</v>
-      </c>
-      <c r="D14">
-        <v>0.69067310066493215</v>
-      </c>
-      <c r="E14">
-        <v>2.555952673871556E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1747,16 +2257,16 @@
         <v>803.85979756538359</v>
       </c>
       <c r="B15">
+        <v>1.6214288018909472E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.70621284544108165</v>
+      </c>
+      <c r="D15">
         <v>1435.506266752722</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>1945.584980237154</v>
-      </c>
-      <c r="D15">
-        <v>0.70621284544108165</v>
-      </c>
-      <c r="E15">
-        <v>1.6214288018909472E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1764,16 +2274,16 @@
         <v>700.75591657127291</v>
       </c>
       <c r="B16">
+        <v>2.0771844317090459E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.70006002944617229</v>
+      </c>
+      <c r="D16">
         <v>1358.6524354641249</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>1789.906926406926</v>
-      </c>
-      <c r="D16">
-        <v>0.70006002944617229</v>
-      </c>
-      <c r="E16">
-        <v>2.0771844317090459E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1781,16 +2291,16 @@
         <v>585.26654777637896</v>
       </c>
       <c r="B17">
+        <v>1.727922593093506E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.67533079401473328</v>
+      </c>
+      <c r="D17">
         <v>1216.636585288076</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>1998.3410041841</v>
-      </c>
-      <c r="D17">
-        <v>0.67533079401473328</v>
-      </c>
-      <c r="E17">
-        <v>1.727922593093506E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1798,16 +2308,16 @@
         <v>830.99823097598915</v>
       </c>
       <c r="B18">
+        <v>2.0111878229506719E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.68536238569342744</v>
+      </c>
+      <c r="D18">
         <v>1525.2131343532251</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>1908.022675736961</v>
-      </c>
-      <c r="D18">
-        <v>0.68536238569342744</v>
-      </c>
-      <c r="E18">
-        <v>2.0111878229506719E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1815,16 +2325,16 @@
         <v>618.90945970313112</v>
       </c>
       <c r="B19">
+        <v>1.403628473771908E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.6932117954026572</v>
+      </c>
+      <c r="D19">
         <v>1234.3440112016669</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>1779.0186046511631</v>
-      </c>
-      <c r="D19">
-        <v>0.6932117954026572</v>
-      </c>
-      <c r="E19">
-        <v>1.403628473771908E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1832,16 +2342,186 @@
         <v>696.00895299654667</v>
       </c>
       <c r="B20">
+        <v>2.1407554409083811E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.68163088436002417</v>
+      </c>
+      <c r="D20">
         <v>1377.9761805856169</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>1929.814196242171</v>
       </c>
-      <c r="D20">
-        <v>0.68163088436002417</v>
-      </c>
-      <c r="E20">
-        <v>2.1407554409083811E-2</v>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>810.44713079786425</v>
+      </c>
+      <c r="B21">
+        <v>2.2434738372556419E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.6631411008718614</v>
+      </c>
+      <c r="D21">
+        <v>1584.8661294653989</v>
+      </c>
+      <c r="E21">
+        <v>1650.4477611940299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>528.28438360869768</v>
+      </c>
+      <c r="B22">
+        <v>2.0276529183120132E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.703859541735951</v>
+      </c>
+      <c r="D22">
+        <v>1070.6978525208001</v>
+      </c>
+      <c r="E22">
+        <v>1874.6327800829879</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>918.52348152629247</v>
+      </c>
+      <c r="B23">
+        <v>2.063467856451277E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.70123818820528971</v>
+      </c>
+      <c r="D23">
+        <v>1649.877531522299</v>
+      </c>
+      <c r="E23">
+        <v>1931.8616071428571</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>793.1298616237234</v>
+      </c>
+      <c r="B24">
+        <v>1.393103602666239E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.70525286774248352</v>
+      </c>
+      <c r="D24">
+        <v>1334.7425879022289</v>
+      </c>
+      <c r="E24">
+        <v>1997.5818181818181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>565.56755724881396</v>
+      </c>
+      <c r="B25">
+        <v>1.8726678432769851E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.69933115658869971</v>
+      </c>
+      <c r="D25">
+        <v>1219.9061299604709</v>
+      </c>
+      <c r="E25">
+        <v>1872.865384615385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>765.40064379430271</v>
+      </c>
+      <c r="B26">
+        <v>1.9572594802136151E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.67745798462307982</v>
+      </c>
+      <c r="D26">
+        <v>1546.0807737492439</v>
+      </c>
+      <c r="E26">
+        <v>2060.4116279069772</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>707.21226356133593</v>
+      </c>
+      <c r="B27">
+        <v>1.896728157168814E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.66875640382174029</v>
+      </c>
+      <c r="D27">
+        <v>1423.624603587574</v>
+      </c>
+      <c r="E27">
+        <v>1849.464601769911</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>699.72089137050409</v>
+      </c>
+      <c r="B28">
+        <v>1.952434432077373E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.71380518355989875</v>
+      </c>
+      <c r="D28">
+        <v>1369.4404456499631</v>
+      </c>
+      <c r="E28">
+        <v>1928.058295964126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>580.66573037431272</v>
+      </c>
+      <c r="B29">
+        <v>1.88198097418729E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.69947286474520853</v>
+      </c>
+      <c r="D29">
+        <v>1267.0346467576419</v>
+      </c>
+      <c r="E29">
+        <v>2042.916666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>795.68786921114133</v>
+      </c>
+      <c r="B30">
+        <v>1.9743039730340209E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.69023795220075257</v>
+      </c>
+      <c r="D30">
+        <v>1484.053996047707</v>
+      </c>
+      <c r="E30">
+        <v>1987.9043280182229</v>
       </c>
     </row>
   </sheetData>
